--- a/Youth Filings/COVID-19_Related_Youth_Filings_and_Court_Orders.xlsx
+++ b/Youth Filings/COVID-19_Related_Youth_Filings_and_Court_Orders.xlsx
@@ -1277,13 +1277,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B62F73-E9D9-4D46-8E93-51C854D67711}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C75186-41AE-4C1E-9A60-F23093FC0E14}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3334F81C-53EF-48A0-B462-575FB905CAF5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AC0259-CBCE-43F6-810F-DBC73C7D0E39}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21017F2B-E237-48F9-9204-C57C90947032}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F406043-B32A-4CFA-B062-A05912D90A8B}"/>
 </file>
--- a/Youth Filings/COVID-19_Related_Youth_Filings_and_Court_Orders.xlsx
+++ b/Youth Filings/COVID-19_Related_Youth_Filings_and_Court_Orders.xlsx
@@ -1048,242 +1048,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051E0680B92C32A4BA570E67EC69CADAB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b543824e0d0efda384fe7e90684491c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" xmlns:ns3="5adaec23-4d3a-444a-8df2-cdc77892727c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e549fe9afa7e302c856fa33d7078cb81" ns2:_="" ns3:_="">
-    <xsd:import namespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2"/>
-    <xsd:import namespace="5adaec23-4d3a-444a-8df2-cdc77892727c"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="decd7d76-ebaa-4206-97b5-2f3f55aa59b2" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5adaec23-4d3a-444a-8df2-cdc77892727c" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05C75186-41AE-4C1E-9A60-F23093FC0E14}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AC0259-CBCE-43F6-810F-DBC73C7D0E39}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F406043-B32A-4CFA-B062-A05912D90A8B}"/>
 </file>
--- a/Youth Filings/COVID-19_Related_Youth_Filings_and_Court_Orders.xlsx
+++ b/Youth Filings/COVID-19_Related_Youth_Filings_and_Court_Orders.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -974,7 +974,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Denied *see row 12</t>
+          <t>Denied *see row 13</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1006,39 +1006,87 @@
         </is>
       </c>
       <c r="B12" s="2">
+        <v>43987</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>In the MATTER OF the REQUEST TO MODIFY 
+PRISON SENTENCES, Expedite Parole Hearings, 
+and Identify Vulnerable Prisoners</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N.J.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Matter of Request to Modify Prison Sentences, No. 084412, 2020 WL 3022885 (N.J. June 5, 2020)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Petition for early release or furlough 
+of several groups</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Remanded</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>"We have not granted the full relief the Public Defender and
+ACLU sought. The arguments raised do not provide a basis
+for that relief, and we recognize the role the other branches
+of government have. The Executive and Legislative Branches
+retain the authority to enact policy changes in response to the
+spread of COVID-19 in state prisons and juvenile facilities."</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Order/Opinion</t>
+        </is>
+      </c>
+      <c r="B13" s="2">
         <v>44006</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>N.H. ex rel J.H. v. Edwards</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>M.D. La.</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Denied</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://tinyurl.com/yc3dudm3</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>https://perma.cc/DP6T-CMTN</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>LA federal judged refused to order youth released, arguing the OJJ's response to COVID 19 has been reasonable
 Those who filed the case viewed it as a partial victory, because the OJJ made some changes since they filed the lawsuit on May 14, including stopping the use of pepper spray and resuming in person instruction</t>
